--- a/results/results/20241125/table.xlsx
+++ b/results/results/20241125/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ying-Ju Chen\Lab\robot xarm\GitHub\my-project\results\results\20241125\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9214B33-DF6C-4040-A725-CB70A96FC7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCDDF8E-1EBF-4D54-B879-8B349FF87455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>loss</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>: 0.8738</t>
-  </si>
-  <si>
-    <t>: 0.9787</t>
   </si>
 </sst>
 </file>
@@ -3786,7 +3783,7 @@
                   <c:v>0.96550000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.97870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.96640000000000004</c:v>
@@ -12967,7 +12964,7 @@
   <dimension ref="A1:K200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -13645,8 +13642,8 @@
       <c r="E19">
         <v>0.94550000000000001</v>
       </c>
-      <c r="F19" t="s">
-        <v>17</v>
+      <c r="F19">
+        <v>0.97870000000000001</v>
       </c>
       <c r="G19">
         <v>0.29409999999999997</v>
